--- a/biology/Histoire de la zoologie et de la botanique/Edmund_Beecher_Wilson/Edmund_Beecher_Wilson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edmund_Beecher_Wilson/Edmund_Beecher_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmund Beecher Wilson est un zoologiste et un généticien américain né le 19 octobre 1856 à Geneva (Illinois) et mort le 3 mars 1939 à New York (État de New York).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplôme à Yale en 1878, Edmund Beecher Wilson soutient son doctorat à l’université Johns-Hopkins en 1881. Il donne des cours au Williams College en 1883-1884, au Massachusetts Institute of Technology en 1884-1885 et est professeur de biologie au Bryn Mawr College de 1885 à 1891. En 1891, il visite Theodor Boveri à Munich. Il reste lié d'amitié avec Boveri et lui envoie par la suite de nombreux étudiants. En 1896, Marcella O'Grady, sa collaboratrice et professeure à Bryn Mawr, rejoint Boveri à Wurzbourg où il est désormais professeur. En 1897, Marcella épouse Theodor Boveri.
 À son retour d'Allemagne, Edmund Beecher Wilson part à l’université Columbia où est d’abord professeur adjoint de biologie de 1891 à 1894, professeur de zoologie des invertébrés de 1894 à 1897 puis professeur de zoologie à partir de cette date.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1887 : avec William Thompson Sedgwick (1855-1921) An Introduction to General Biology
 1889 : The Embryology of the Earthworm
